--- a/sub_projs/MTSV_USFS/silvdata_data_publish.xlsx
+++ b/sub_projs/MTSV_USFS/silvdata_data_publish.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/proterant/sub_projs/MTSV_USFS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D771B41-91C5-B640-8FEA-3CC88F3715E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="560" windowWidth="29820" windowHeight="24120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14440" yWindow="560" windowWidth="29820" windowHeight="24120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="silvdata_final.csv" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="240">
   <si>
     <t>species</t>
   </si>
@@ -697,15 +703,9 @@
     <t>physiological hysteranthy, 1= hysteranthous, 0=seranthous</t>
   </si>
   <si>
-    <t>minimum precipitation recorded across species'range</t>
-  </si>
-  <si>
     <t>USDA CPC</t>
   </si>
   <si>
-    <t>minimum temperature recorded across species'range</t>
-  </si>
-  <si>
     <t>was a predictor imputed from other data source? If yes, which?</t>
   </si>
   <si>
@@ -713,12 +713,45 @@
   </si>
   <si>
     <t>source (if outside of USFS Silvics)</t>
+  </si>
+  <si>
+    <t>flowers before leaves (hysteranthous)</t>
+  </si>
+  <si>
+    <t>flowers with leaves</t>
+  </si>
+  <si>
+    <t>flowers after leaves</t>
+  </si>
+  <si>
+    <t>hysteranthous</t>
+  </si>
+  <si>
+    <t>Phen.sequences= pro,pro/syn,syn</t>
+  </si>
+  <si>
+    <t>seranthous</t>
+  </si>
+  <si>
+    <t>Phen.sequence=syn/ser,ser</t>
+  </si>
+  <si>
+    <t>Phen.sequence=pro</t>
+  </si>
+  <si>
+    <t>Phen.sequence=pro/syn,syn,syn/ser,ser</t>
+  </si>
+  <si>
+    <t>minimum temperature recorded across species'range (degrees Farengeit)</t>
+  </si>
+  <si>
+    <t>minimum precipitation recorded across species'range (inches)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -817,6 +850,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1141,16 +1182,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>207</v>
       </c>
@@ -1194,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1282,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1414,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1458,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1590,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1634,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1678,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1722,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1766,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1810,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1854,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1898,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1942,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1986,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2030,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -2074,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2118,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2162,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2206,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -2250,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2294,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2338,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2426,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2470,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2514,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2558,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2602,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2646,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2690,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2734,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2778,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -2822,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -2866,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -2910,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -2954,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -2998,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -3042,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>107</v>
       </c>
@@ -3086,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -3130,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -3174,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -3218,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -3262,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -3306,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -3350,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -3394,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -3438,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -3482,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -3526,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>142</v>
       </c>
@@ -3570,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -3614,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -3658,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>142</v>
       </c>
@@ -3702,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -3746,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -3790,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -3834,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -3878,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -3922,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -3966,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -4010,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -4054,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>169</v>
       </c>
@@ -4098,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>172</v>
       </c>
@@ -4142,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -4186,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>179</v>
       </c>
@@ -4230,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -4274,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -4318,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>185</v>
       </c>
@@ -4362,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>187</v>
       </c>
@@ -4406,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>190</v>
       </c>
@@ -4450,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>193</v>
       </c>
@@ -4494,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>196</v>
       </c>
@@ -4538,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -4582,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -4626,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>196</v>
       </c>
@@ -4670,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>196</v>
       </c>
@@ -4714,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>204</v>
       </c>
@@ -4770,19 +4811,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -4790,20 +4831,20 @@
         <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -4811,7 +4852,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -4819,7 +4860,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4868,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4835,7 +4876,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4843,21 +4884,21 @@
         <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4865,7 +4906,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4873,29 +4914,29 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
         <v>225</v>
       </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4903,12 +4944,83 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
